--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\insurance dossair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A530805-1244-49D1-8EB2-4B46E0CD7855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B98762-EC9A-4EE9-88F4-68565BC74F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DCA302C1-101F-4CED-A0BC-5DB79C2ABBC2}"/>
   </bookViews>
@@ -1209,8 +1209,7 @@
     <t>LAWRENCE SCHOOL</t>
   </si>
   <si>
-    <t>Closing Balance
-as on 31.03.2025</t>
+    <t>Closing Balance as on 31.03.2025</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1597,7 @@
   <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
